--- a/ДинамикаЗапросов.xlsx
+++ b/ДинамикаЗапросов.xlsx
@@ -9,22 +9,50 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="multiTimeline" sheetId="1" r:id="rId1"/>
+    <sheet name="динамика" sheetId="1" r:id="rId1"/>
+    <sheet name="туристы" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Дата</t>
   </si>
   <si>
     <t>Количество запросов</t>
+  </si>
+  <si>
+    <t>Руские</t>
+  </si>
+  <si>
+    <t>Иностранцы</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Области</t>
+  </si>
+  <si>
+    <t>количество</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Северо-западный федеральный округ</t>
+  </si>
+  <si>
+    <t>Приволжский федеральный округ</t>
+  </si>
+  <si>
+    <t>Иные</t>
   </si>
 </sst>
 </file>
@@ -32,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -531,7 +559,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -646,7 +674,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>multiTimeline!$B$3</c:f>
+              <c:f>динамика!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -669,7 +697,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>multiTimeline!$A$4:$A$55</c:f>
+              <c:f>динамика!$A$4:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yy;@</c:formatCode>
                 <c:ptCount val="52"/>
@@ -834,7 +862,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multiTimeline!$B$4:$B$55</c:f>
+              <c:f>динамика!$B$4:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1167,7 +1195,595 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Соотношение туристов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>туристы!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Руские</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Иностранцы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>туристы!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5750000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6732-4E95-A8E1-DBAAAF9E56B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение туристов по округам</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> РФ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>туристы!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Москва</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Северо-западный федеральный округ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Приволжский федеральный округ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Иные</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>туристы!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>943000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>517500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989499.9999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A779-4117-B944-22B76A9F95D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1723,6 +2339,1044 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1750,6 +3404,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198126</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2023,7 +3742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -2458,4 +4177,92 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2-250000</f>
+        <v>5750000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <f>0.4*B3</f>
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f>0.164*B3</f>
+        <v>943000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <f>0.09*B3</f>
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>(100-16.4-40-9)*B3*0.01</f>
+        <v>1989499.9999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ДинамикаЗапросов.xlsx
+++ b/ДинамикаЗапросов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="динамика" sheetId="1" r:id="rId1"/>
     <sheet name="туристы" sheetId="2" r:id="rId2"/>
+    <sheet name="стоимость ПО" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Дата</t>
   </si>
@@ -53,6 +54,123 @@
   </si>
   <si>
     <t>Иные</t>
+  </si>
+  <si>
+    <t>ТСмес</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>тарифная</t>
+  </si>
+  <si>
+    <t>ставка</t>
+  </si>
+  <si>
+    <t>КРЧ</t>
+  </si>
+  <si>
+    <t>рабочих</t>
+  </si>
+  <si>
+    <t>часов</t>
+  </si>
+  <si>
+    <t>З</t>
+  </si>
+  <si>
+    <t>руб/час</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E95%  </t>
+  </si>
+  <si>
+    <t>Зарплата на 1 одного человека в месяц будет составлять</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>руб</t>
+  </si>
+  <si>
+    <t>З=</t>
+  </si>
+  <si>
+    <t>Оборудование</t>
+  </si>
+  <si>
+    <t>Ноутбук</t>
+  </si>
+  <si>
+    <t>Сервер</t>
+  </si>
+  <si>
+    <t>Общая стоимость</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость обслуживание </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость на затраты </t>
+  </si>
+  <si>
+    <t>Общая стоимость оборудования</t>
+  </si>
+  <si>
+    <t>Общая стоимость разработки с учетом зарплаты 5 человекам на 5 месяцев()</t>
+  </si>
+  <si>
+    <t>и еще 7 месяцев 1 человеку для сопровождения</t>
+  </si>
+  <si>
+    <t>Затраты на копию</t>
+  </si>
+  <si>
+    <t>Предполагаемый объем реализации, шт</t>
+  </si>
+  <si>
+    <t>Полная себестоимость</t>
+  </si>
+  <si>
+    <t>Затраты на продвижение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">всего туристов </t>
+  </si>
+  <si>
+    <t>ожидаемый процент туристов</t>
+  </si>
+  <si>
+    <t>ожидаемое количество туристов</t>
+  </si>
+  <si>
+    <t>Затраты на копию=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение цены реализации 1 копии </t>
+  </si>
+  <si>
+    <t>Затраты на 1 копию=</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Продажа без НДС</t>
+  </si>
+  <si>
+    <t>НДС</t>
+  </si>
+  <si>
+    <t>Продажа с НДС</t>
+  </si>
+  <si>
+    <t>Затраты на тиражирование</t>
   </si>
 </sst>
 </file>
@@ -62,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +332,27 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -397,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -512,6 +651,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -557,9 +711,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -633,7 +803,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1287,6 +1456,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F339-459D-97CC-A040429E248A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1302,6 +1476,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F339-459D-97CC-A040429E248A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1522,6 +1701,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BC0A-4D01-9570-D6F0B759BA04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1537,6 +1721,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BC0A-4D01-9570-D6F0B759BA04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1552,6 +1741,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BC0A-4D01-9570-D6F0B759BA04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1567,6 +1761,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BC0A-4D01-9570-D6F0B759BA04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4184,7 +4383,7 @@
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4265,4 +4464,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="10.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3">
+        <v>641.29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>160</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <f>C1*C2/C3</f>
+        <v>380.76593749999995</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <f>C4*C3</f>
+        <v>60922.549999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>39990</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3">
+        <v>103020</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C10*B10+B11</f>
+        <v>302970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C12*0.03</f>
+        <v>9089.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3">
+        <f>0.02*C12</f>
+        <v>6059.4000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C12+C13+C14</f>
+        <v>318118.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <f>D16+B7*5*5+B7*7</f>
+        <v>2267640.0999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5">
+        <f>E23</f>
+        <v>180000</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6">
+        <f>A19</f>
+        <v>2267640.0999999996</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="3">
+        <f>E21*E22/100</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3">
+        <f>(B23+B25+B24)/B22</f>
+        <v>13.159111666666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B27</f>
+        <v>13.159111666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B30+B31*B30</f>
+        <v>23.686400999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B33*B32+B32</f>
+        <v>28.423681199999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>